--- a/test_numbers.xlsx
+++ b/test_numbers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Andrey\IdeaProjects\Test-sort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Andrey\AppData\IdeaProjects\Test-sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6399CE65-A517-48C3-9B94-D1B99CF8F91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A961B4E6-EA8C-436F-8B41-B1E274D3F452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numbers" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +432,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_numbers.xlsx
+++ b/test_numbers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Andrey\AppData\IdeaProjects\Test-sort\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Andrey\IdeaProjects\Test-sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A961B4E6-EA8C-436F-8B41-B1E274D3F452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915F92D5-EB09-489C-8A23-393EB78DEC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numbers" sheetId="1" r:id="rId1"/>
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,6 +437,36 @@
         <v>3</v>
       </c>
     </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
